--- a/home/pi/LoRa/Registers.xlsx
+++ b/home/pi/LoRa/Registers.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="10980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="10980" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <t>c4</t>
   </si>
@@ -307,6 +308,66 @@
   </si>
   <si>
     <t>RegSymbTimeoutLsb</t>
+  </si>
+  <si>
+    <t>[0x00] = 0x01</t>
+  </si>
+  <si>
+    <t>[0x01] = 0x03</t>
+  </si>
+  <si>
+    <t>[0x02] = 0x00</t>
+  </si>
+  <si>
+    <t>[0x03] = 0x05</t>
+  </si>
+  <si>
+    <t>[0x04] = 0x11</t>
+  </si>
+  <si>
+    <t>[0x05] = 0x20</t>
+  </si>
+  <si>
+    <t>[0x06] = 0x43</t>
+  </si>
+  <si>
+    <t>[0x07] = 0x9b</t>
+  </si>
+  <si>
+    <t>[0x08] = 0x2b</t>
+  </si>
+  <si>
+    <t>[0x09] = 0x41</t>
+  </si>
+  <si>
+    <t>[0x0a] = 0x9a</t>
+  </si>
+  <si>
+    <t>[0x0b] = 0x2c</t>
+  </si>
+  <si>
+    <t>[0x0c] = 0x56</t>
+  </si>
+  <si>
+    <t>[0x0d] = 0xb7</t>
+  </si>
+  <si>
+    <t>[0x0e] = 0x72</t>
+  </si>
+  <si>
+    <t>[0x0f] = 0xf6</t>
+  </si>
+  <si>
+    <t>[0x10] = 0xe2</t>
+  </si>
+  <si>
+    <t>[0x11] = 0xe4</t>
+  </si>
+  <si>
+    <t>[0x12] = 0xa9</t>
+  </si>
+  <si>
+    <t>[0x13] = 0x68</t>
   </si>
 </sst>
 </file>
@@ -663,71 +724,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>72</v>
-      </c>
-      <c r="B1" t="str">
-        <f>HEX2BIN(A1)</f>
-        <v>1110010</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <f>LEFT(B1,LEN(B1) - 4)</f>
-        <v>111</v>
-      </c>
-      <c r="D1" t="str">
-        <f>RIGHT(B1, 4)</f>
-        <v>0010</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <f>HEX2BIN(A2)</f>
-        <v>11000100</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>LEFT(B2,LEN(B2) - 4)</f>
-        <v>1100</v>
-      </c>
-      <c r="D2" t="str">
-        <f>RIGHT(B2,4)</f>
-        <v>0100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:H33"/>
     </sheetView>
   </sheetViews>
@@ -761,11 +760,11 @@
         <v>0x0</v>
       </c>
       <c r="D2" t="str">
-        <f>MID(A2, 14, 2)</f>
+        <f t="shared" ref="D2:E17" si="0">MID(A2, 14, 2)</f>
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f>MID(B2, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>E9</v>
       </c>
       <c r="F2" t="str">
@@ -781,19 +780,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C65" si="0">MID(A3, SEARCH("[", A3)+1, SEARCH("]", A3)- SEARCH("[", A3)-1)</f>
+        <f t="shared" ref="C3:C65" si="1">MID(A3, SEARCH("[", A3)+1, SEARCH("]", A3)- SEARCH("[", A3)-1)</f>
         <v>0x1</v>
       </c>
       <c r="D3" t="str">
-        <f>MID(A3, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="E3" t="str">
-        <f>MID(B3, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F65" si="1">IF(D3=E3, "", "DIFFERENT")</f>
+        <f t="shared" ref="F3:F65" si="2">IF(D3=E3, "", "DIFFERENT")</f>
         <v/>
       </c>
     </row>
@@ -805,19 +804,19 @@
         <v>6</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x2</v>
       </c>
       <c r="D4" t="str">
-        <f>MID(A4, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>1A</v>
       </c>
       <c r="E4" t="str">
-        <f>MID(B4, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>1A</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -829,19 +828,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x3</v>
       </c>
       <c r="D5" t="str">
-        <f>MID(A5, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="E5" t="str">
-        <f>MID(B5, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -853,19 +852,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x4</v>
       </c>
       <c r="D6" t="str">
-        <f>MID(A6, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <f>MID(B6, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -877,19 +876,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x5</v>
       </c>
       <c r="D7" t="str">
-        <f>MID(A7, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="E7" t="str">
-        <f>MID(B7, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -901,19 +900,19 @@
         <v>10</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x6</v>
       </c>
       <c r="D8" t="str">
-        <f>MID(A8, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>D8</v>
       </c>
       <c r="E8" t="str">
-        <f>MID(B8, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>D8</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -925,19 +924,19 @@
         <v>11</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x7</v>
       </c>
       <c r="D9" t="str">
-        <f>MID(A9, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>4C</v>
       </c>
       <c r="E9" t="str">
-        <f>MID(B9, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>4C</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -949,19 +948,19 @@
         <v>69</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x8</v>
       </c>
       <c r="D10" t="str">
-        <f>MID(A10, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>CD</v>
       </c>
       <c r="E10" t="str">
-        <f>MID(B10, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>CC</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
       <c r="G10" t="s">
@@ -980,19 +979,19 @@
         <v>70</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x9</v>
       </c>
       <c r="D11" t="str">
-        <f>MID(A11, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="E11" t="str">
-        <f>MID(B11, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
       <c r="G11" t="s">
@@ -1011,19 +1010,19 @@
         <v>14</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0xA</v>
       </c>
       <c r="D12" t="str">
-        <f>MID(A12, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E12" t="str">
-        <f>MID(B12, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1035,19 +1034,19 @@
         <v>71</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0xB</v>
       </c>
       <c r="D13" t="str">
-        <f>MID(A13, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>2B</v>
       </c>
       <c r="E13" t="str">
-        <f>MID(B13, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
       <c r="G13" t="s">
@@ -1066,19 +1065,19 @@
         <v>72</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0xC</v>
       </c>
       <c r="D14" t="str">
-        <f>MID(A14, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E14" t="str">
-        <f>MID(B14, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
       <c r="G14" t="s">
@@ -1097,19 +1096,19 @@
         <v>73</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0xD</v>
       </c>
       <c r="D15" t="str">
-        <f>MID(A15, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="E15" t="str">
-        <f>MID(B15, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -1121,19 +1120,19 @@
         <v>74</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0xE</v>
       </c>
       <c r="D16" t="str">
-        <f>MID(A16, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f>MID(B16, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -1145,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0xF</v>
       </c>
       <c r="D17" t="str">
-        <f>MID(A17, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f>MID(B17, 14, 2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1169,7 +1168,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x10</v>
       </c>
       <c r="D18" t="str">
@@ -1181,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1193,19 +1192,19 @@
         <v>21</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x11</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D65" si="2">MID(A19, 15, 2)</f>
+        <f t="shared" ref="D19:E65" si="3">MID(A19, 15, 2)</f>
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" ref="E19:E65" si="3">MID(B19, 15, 2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1217,11 +1216,11 @@
         <v>22</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x12</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E20" t="str">
@@ -1229,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1241,11 +1240,11 @@
         <v>23</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x13</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E21" t="str">
@@ -1253,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1265,11 +1264,11 @@
         <v>24</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x14</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E22" t="str">
@@ -1277,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1289,11 +1288,11 @@
         <v>25</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x15</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E23" t="str">
@@ -1301,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1313,11 +1312,11 @@
         <v>26</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x16</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E24" t="str">
@@ -1325,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1337,11 +1336,11 @@
         <v>27</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x17</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E25" t="str">
@@ -1349,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1361,11 +1360,11 @@
         <v>28</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x18</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E26" t="str">
@@ -1373,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1385,11 +1384,11 @@
         <v>29</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x19</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27" t="str">
@@ -1397,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1409,11 +1408,11 @@
         <v>30</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x1A</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28" t="str">
@@ -1421,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1433,11 +1432,11 @@
         <v>31</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x1B</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E29" t="str">
@@ -1445,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1457,11 +1456,11 @@
         <v>32</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x1C</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E30" t="str">
@@ -1469,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1481,11 +1480,11 @@
         <v>75</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x1D</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="E31" t="str">
@@ -1493,7 +1492,7 @@
         <v>D</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -1505,11 +1504,11 @@
         <v>76</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x1E</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>C4</v>
       </c>
       <c r="E32" t="str">
@@ -1517,7 +1516,7 @@
         <v>C7</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
       <c r="G32" t="s">
@@ -1536,11 +1535,11 @@
         <v>77</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x1F</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="E33" t="str">
@@ -1548,7 +1547,7 @@
         <v>FF</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
       <c r="G33" t="s">
@@ -1567,11 +1566,11 @@
         <v>36</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x20</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E34" t="str">
@@ -1579,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1591,11 +1590,11 @@
         <v>37</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x21</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E35" t="str">
@@ -1603,7 +1602,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1615,11 +1614,11 @@
         <v>78</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x22</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="E36" t="str">
@@ -1627,7 +1626,7 @@
         <v>FF</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -1639,11 +1638,11 @@
         <v>39</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x23</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FF</v>
       </c>
       <c r="E37" t="str">
@@ -1651,7 +1650,7 @@
         <v>FF</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1663,11 +1662,11 @@
         <v>40</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x24</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E38" t="str">
@@ -1675,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1687,11 +1686,11 @@
         <v>41</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x25</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E39" t="str">
@@ -1699,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1711,11 +1710,11 @@
         <v>42</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x26</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E40" t="str">
@@ -1723,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1735,11 +1734,11 @@
         <v>43</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x27</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E41" t="str">
@@ -1747,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1759,11 +1758,11 @@
         <v>44</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x28</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E42" t="str">
@@ -1771,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1783,11 +1782,11 @@
         <v>45</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x29</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E43" t="str">
@@ -1795,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1807,11 +1806,11 @@
         <v>46</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x2A</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E44" t="str">
@@ -1819,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1831,11 +1830,11 @@
         <v>47</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x2B</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E45" t="str">
@@ -1843,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1855,11 +1854,11 @@
         <v>48</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x2C</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E46" t="str">
@@ -1867,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1879,11 +1878,11 @@
         <v>49</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x2D</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E47" t="str">
@@ -1891,7 +1890,7 @@
         <v>50</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1903,11 +1902,11 @@
         <v>50</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x2E</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E48" t="str">
@@ -1915,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1927,11 +1926,11 @@
         <v>79</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x2F</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="E49" t="str">
@@ -1939,7 +1938,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -1951,11 +1950,11 @@
         <v>80</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x30</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="E50" t="str">
@@ -1963,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -1975,11 +1974,11 @@
         <v>81</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x31</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
       <c r="E51" t="str">
@@ -1987,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -1999,11 +1998,11 @@
         <v>54</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x32</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E52" t="str">
@@ -2011,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2023,11 +2022,11 @@
         <v>55</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x33</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="E53" t="str">
@@ -2035,7 +2034,7 @@
         <v>27</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2047,11 +2046,11 @@
         <v>56</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x34</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1C</v>
       </c>
       <c r="E54" t="str">
@@ -2059,7 +2058,7 @@
         <v>1C</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2071,11 +2070,11 @@
         <v>57</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x35</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="E55" t="str">
@@ -2083,7 +2082,7 @@
         <v>A</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2095,11 +2094,11 @@
         <v>82</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x36</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E56" t="str">
@@ -2107,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -2119,11 +2118,11 @@
         <v>59</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x37</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="E57" t="str">
@@ -2131,7 +2130,7 @@
         <v>A</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2143,11 +2142,11 @@
         <v>60</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x38</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="E58" t="str">
@@ -2155,7 +2154,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2167,11 +2166,11 @@
         <v>61</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x39</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E59" t="str">
@@ -2179,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2191,11 +2190,11 @@
         <v>83</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x3A</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="E60" t="str">
@@ -2203,7 +2202,7 @@
         <v>65</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -2215,11 +2214,11 @@
         <v>63</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x3B</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1D</v>
       </c>
       <c r="E61" t="str">
@@ -2227,7 +2226,7 @@
         <v>1D</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2239,11 +2238,11 @@
         <v>84</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x3C</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E62" t="str">
@@ -2251,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -2263,11 +2262,11 @@
         <v>85</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x3D</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="E63" t="str">
@@ -2275,7 +2274,7 @@
         <v>A1</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIFFERENT</v>
       </c>
     </row>
@@ -2287,11 +2286,11 @@
         <v>66</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x3E</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E64" t="str">
@@ -2299,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2311,11 +2310,11 @@
         <v>67</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0x3F</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E65" t="str">
@@ -2323,8 +2322,510 @@
         <v>0</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>72</v>
+      </c>
+      <c r="B1" t="str">
+        <f>HEX2BIN(A1)</f>
+        <v>1110010</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>LEFT(B1,LEN(B1) - 4)</f>
+        <v>111</v>
+      </c>
+      <c r="D1" t="str">
+        <f>RIGHT(B1, 4)</f>
+        <v>0010</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <f>HEX2BIN(A2)</f>
+        <v>11000100</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>LEFT(B2,LEN(B2) - 4)</f>
+        <v>1100</v>
+      </c>
+      <c r="D2" t="str">
+        <f>RIGHT(B2,4)</f>
+        <v>0100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="str">
+        <f>MID(A1, SEARCH("[", A1)+1, SEARCH("]", A1)- SEARCH("[", A1)-1)</f>
+        <v>0x00</v>
+      </c>
+      <c r="C1" t="str">
+        <f>MID(A1, 12, 2)</f>
+        <v>01</v>
+      </c>
+      <c r="D1" t="str">
+        <f>HEX2BIN(LEFT(C1, 1), 4)</f>
+        <v>0000</v>
+      </c>
+      <c r="E1" t="str">
+        <f>HEX2BIN(MID(C1, 2,1), 4)</f>
+        <v>0001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(A2, SEARCH("[", A2)+1, SEARCH("]", A2)- SEARCH("[", A2)-1)</f>
+        <v>0x01</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C20" si="0">MID(A2, 12, 2)</f>
+        <v>03</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D20" si="1">HEX2BIN(LEFT(C2, 1), 4)</f>
+        <v>0000</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E20" si="2">HEX2BIN(MID(C2, 2,1), 4)</f>
+        <v>0011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="str">
+        <f>MID(A3, SEARCH("[", A3)+1, SEARCH("]", A3)- SEARCH("[", A3)-1)</f>
+        <v>0x02</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="str">
+        <f>MID(A4, SEARCH("[", A4)+1, SEARCH("]", A4)- SEARCH("[", A4)-1)</f>
+        <v>0x03</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>05</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>0101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="str">
+        <f>MID(A5, SEARCH("[", A5)+1, SEARCH("]", A5)- SEARCH("[", A5)-1)</f>
+        <v>0x04</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>0001</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>0001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="str">
+        <f>MID(A6, SEARCH("[", A6)+1, SEARCH("]", A6)- SEARCH("[", A6)-1)</f>
+        <v>0x05</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>0010</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="str">
+        <f>MID(A7, SEARCH("[", A7)+1, SEARCH("]", A7)- SEARCH("[", A7)-1)</f>
+        <v>0x06</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>0100</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>0011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="str">
+        <f>MID(A8, SEARCH("[", A8)+1, SEARCH("]", A8)- SEARCH("[", A8)-1)</f>
+        <v>0x07</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>9b</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>1001</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="str">
+        <f>MID(A9, SEARCH("[", A9)+1, SEARCH("]", A9)- SEARCH("[", A9)-1)</f>
+        <v>0x08</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>2b</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>0010</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="str">
+        <f>MID(A10, SEARCH("[", A10)+1, SEARCH("]", A10)- SEARCH("[", A10)-1)</f>
+        <v>0x09</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>0100</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>0001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="str">
+        <f>MID(A11, SEARCH("[", A11)+1, SEARCH("]", A11)- SEARCH("[", A11)-1)</f>
+        <v>0x0a</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>9a</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>1001</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="str">
+        <f>MID(A12, SEARCH("[", A12)+1, SEARCH("]", A12)- SEARCH("[", A12)-1)</f>
+        <v>0x0b</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>2c</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>0010</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="str">
+        <f>MID(A13, SEARCH("[", A13)+1, SEARCH("]", A13)- SEARCH("[", A13)-1)</f>
+        <v>0x0c</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>0101</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>0110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="str">
+        <f>MID(A14, SEARCH("[", A14)+1, SEARCH("]", A14)- SEARCH("[", A14)-1)</f>
+        <v>0x0d</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>b7</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>1011</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>0111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="str">
+        <f>MID(A15, SEARCH("[", A15)+1, SEARCH("]", A15)- SEARCH("[", A15)-1)</f>
+        <v>0x0e</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>0010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="str">
+        <f>MID(A16, SEARCH("[", A16)+1, SEARCH("]", A16)- SEARCH("[", A16)-1)</f>
+        <v>0x0f</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>f6</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>0110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="str">
+        <f>MID(A17, SEARCH("[", A17)+1, SEARCH("]", A17)- SEARCH("[", A17)-1)</f>
+        <v>0x10</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>e2</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>0010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="str">
+        <f>MID(A18, SEARCH("[", A18)+1, SEARCH("]", A18)- SEARCH("[", A18)-1)</f>
+        <v>0x11</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>e4</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>0100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="str">
+        <f>MID(A19, SEARCH("[", A19)+1, SEARCH("]", A19)- SEARCH("[", A19)-1)</f>
+        <v>0x12</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>a9</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="str">
+        <f>MID(A20, SEARCH("[", A20)+1, SEARCH("]", A20)- SEARCH("[", A20)-1)</f>
+        <v>0x13</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>0110</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
